--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1710505.506918893</v>
+        <v>-1712921.026419038</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>166.3881855438261</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>116.0019626007199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>360.4843486616847</v>
       </c>
     </row>
     <row r="3">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>162.5776147681367</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>99.90187484148926</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>201.1596923141569</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>124.4903213614995</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>65.50057627590068</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>142.9046269258106</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>172.814044372289</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>113.7145621736549</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182105</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>46.32727239260574</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>76.84589590440105</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>203.0744956111735</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>25.54245692170219</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247882</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>67.33742371513297</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,13 +2059,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>112.1345064800767</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W22" t="n">
-        <v>125.6335400441266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>32.90388060385599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>120.7389995830104</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124634</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797688</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572899</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.94454156072</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4361,19 +4361,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.94454156072</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y2" t="n">
-        <v>1763.94454156072</v>
+        <v>1749.048653883999</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4507,28 +4507,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.892406545185</v>
+        <v>927.7879015331891</v>
       </c>
       <c r="C5" t="n">
-        <v>1116.929889604773</v>
+        <v>558.8253845927775</v>
       </c>
       <c r="D5" t="n">
-        <v>758.6641909980228</v>
+        <v>200.559685986027</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>200.559685986027</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>193.6141852368235</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>179.6907811754144</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>179.6907811754144</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.892406545185</v>
+        <v>1314.387741597311</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X7" t="n">
-        <v>184.0273259635867</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.0273259635867</v>
+        <v>256.4340909802017</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.00952757579</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2291.383273082796</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2291.383273082796</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1938.614617812681</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>1565.148859551602</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1175.00952757579</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.5813018857447</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5813018857447</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D10" t="n">
-        <v>358.5813018857447</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>613.2657900916315</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>613.2657900916315</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>358.5813018857447</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="W10" t="n">
-        <v>358.5813018857447</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="X10" t="n">
-        <v>358.5813018857447</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="Y10" t="n">
-        <v>358.5813018857447</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="11">
@@ -5042,25 +5042,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1518.899775139038</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2497.450077968866</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5078,7 +5078,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.336921276362</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>854.400738348455</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5227,22 @@
         <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>1819.717784223236</v>
       </c>
       <c r="W13" t="n">
-        <v>1100.959038351514</v>
+        <v>1530.300614186275</v>
       </c>
       <c r="X13" t="n">
-        <v>1023.336921276362</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y13" t="n">
-        <v>1023.336921276362</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N14" t="n">
-        <v>3051.398683947134</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O14" t="n">
-        <v>3554.371154826471</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5312,16 +5312,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>827.5554641779659</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C16" t="n">
-        <v>658.619281250059</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D16" t="n">
-        <v>508.5026418377232</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.890966501056</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V16" t="n">
-        <v>1337.765213358457</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W16" t="n">
-        <v>1048.348043321496</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X16" t="n">
-        <v>1048.348043321496</v>
+        <v>1007.508022207955</v>
       </c>
       <c r="Y16" t="n">
-        <v>827.5554641779659</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176198</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770975</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2209.609207880053</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N17" t="n">
-        <v>3189.3614801067</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.592772497321</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216194</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549427</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494872</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763722</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089903</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468579</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,16 +5595,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,31 +5613,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142069</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635549</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487876</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282343</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>540.4807149410336</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,16 +5674,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258585</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1050.690464121524</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>761.2732940845638</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>761.2732940845638</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>540.4807149410336</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,43 +5753,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814246</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5938,22 +5938,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.554715057174</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.652149356036</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1120.662598458018</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1120.662598458018</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.1662718722065</v>
+        <v>659.8526275526848</v>
       </c>
       <c r="C25" t="n">
-        <v>519.2300889442996</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D25" t="n">
-        <v>519.2300889442996</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E25" t="n">
-        <v>485.9938459101016</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
         <v>192.8867116300491</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>1834.38488066732</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.376021052697</v>
+        <v>1579.700392461433</v>
       </c>
       <c r="W25" t="n">
-        <v>908.9588510157366</v>
+        <v>1290.283222424472</v>
       </c>
       <c r="X25" t="n">
-        <v>908.9588510157366</v>
+        <v>1062.293671526455</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.1662718722065</v>
+        <v>841.5010923829245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M26" t="n">
-        <v>2368.748013620957</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N26" t="n">
-        <v>2915.526830679739</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O26" t="n">
-        <v>3795.491481009194</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6327,10 +6327,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
@@ -6388,7 +6388,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,13 +6403,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T28" t="n">
         <v>1967.452490122057</v>
@@ -6418,7 +6418,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
         <v>1276.596863849073</v>
@@ -6427,7 +6427,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,19 +6461,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1840.447459262337</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.310259422545</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N29" t="n">
-        <v>2996.062531649191</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O29" t="n">
         <v>3800.722831322499</v>
@@ -6488,25 +6488,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C31" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H31" t="n">
         <v>145.4370786819758</v>
@@ -6622,10 +6622,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,13 +6640,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R31" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T31" t="n">
         <v>1967.452490122057</v>
@@ -6655,7 +6655,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849073</v>
@@ -6664,7 +6664,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>369.0989517407046</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>702.918325430551</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1153.95253867896</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>1687.484443350884</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,19 +6777,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H34" t="n">
         <v>145.4370786819758</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490193</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L34" t="n">
-        <v>800.746804049922</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6895,13 +6895,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6974,7 +6974,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7099,7 +7099,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,25 +7172,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7251,10 +7251,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,19 +7351,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,25 +7409,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1296.118160724479</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M41" t="n">
-        <v>2274.668463554308</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.420735780954</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160449</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972667</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750622</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2016.310259422547</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2996.062531649193</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,19 +7725,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.961311426849</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430891</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160441</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>285.0508825989992</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8936,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>248.8400772687159</v>
+        <v>258.6211785616931</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>26.1548479163165</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>71.00061210864499</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>226.7688596193112</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>132.9990175570116</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>5.284192235662204</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>285.7011105564197</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>304.7351805999706</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>85.51392558917661</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>16.80057335908873</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>116.5656919961586</v>
+        <v>102.8529310510271</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>229.1155640189945</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>260.9678829613729</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.6060407930189</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>253.7291380777491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>25.75358999436884</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>205.8103709312223</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>148.8637594846361</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>49.06314771265454</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>200.167198467335</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>140.0031368437513</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W22" t="n">
-        <v>160.8894582924644</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>113.5300820427132</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>165.4728386226025</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-8.029132914089132e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1307871.385772206</v>
+        <v>1307871.385772205</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1307871.385772206</v>
+        <v>1307871.385772205</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89266.66910111635</v>
+        <v>89266.66910111632</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,25 +26320,25 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>99270.4467217458</v>
+        <v>99270.44672174577</v>
       </c>
       <c r="F2" t="n">
         <v>99270.44672174577</v>
       </c>
       <c r="G2" t="n">
-        <v>99270.4467217458</v>
+        <v>99270.44672174573</v>
       </c>
       <c r="H2" t="n">
-        <v>99270.44672174576</v>
+        <v>99270.44672174574</v>
       </c>
       <c r="I2" t="n">
         <v>99270.44672174576</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330352</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330352</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330354</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330353</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330354</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>122328.8823008209</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918991</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="J4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33605.65329740897</v>
+      </c>
+      <c r="L4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>33605.653297409</v>
       </c>
-      <c r="M4" t="n">
-        <v>33605.65329740896</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33605.65329740898</v>
-      </c>
       <c r="O4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26482,7 +26482,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705889.1704776585</v>
+        <v>-706156.4415202969</v>
       </c>
       <c r="C6" t="n">
+        <v>-163577.543687502</v>
+      </c>
+      <c r="D6" t="n">
         <v>-163577.5436875021</v>
       </c>
-      <c r="D6" t="n">
-        <v>-163577.543687502</v>
-      </c>
       <c r="E6" t="n">
-        <v>-742638.9778445645</v>
+        <v>-742706.1733347902</v>
       </c>
       <c r="F6" t="n">
-        <v>-15261.56385115777</v>
+        <v>-15328.75934138359</v>
       </c>
       <c r="G6" t="n">
-        <v>-15261.56385115779</v>
+        <v>-15328.75934138364</v>
       </c>
       <c r="H6" t="n">
-        <v>-15261.56385115784</v>
+        <v>-15328.75934138364</v>
       </c>
       <c r="I6" t="n">
-        <v>-15261.56385115783</v>
+        <v>-15328.75934138362</v>
       </c>
       <c r="J6" t="n">
         <v>-245311.4315659428</v>
       </c>
       <c r="K6" t="n">
-        <v>-31308.10307847577</v>
+        <v>-31308.10307847583</v>
       </c>
       <c r="L6" t="n">
         <v>-31308.10307847576</v>
       </c>
       <c r="M6" t="n">
-        <v>-160950.4179174204</v>
+        <v>-160950.4179174205</v>
       </c>
       <c r="N6" t="n">
+        <v>-31308.10307847575</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-68888.2123733498</v>
+      </c>
+      <c r="P6" t="n">
         <v>-31308.10307847572</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-68888.21237334976</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-31308.1030784756</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859253</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>198.8847062271815</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>83.14621767711603</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>63.13204062090043</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>118.6827785106055</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>180.7706777581049</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>27.44099488336178</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.04847948014722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>101.8092259831502</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>211.7784146948723</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>78.41012313600029</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>111.3205432844294</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>160.1296064416698</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970236</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,19 +35410,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>740.6409969913313</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35431,7 +35431,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
@@ -35656,19 +35656,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>647.6020634880878</v>
+        <v>657.3831647810649</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>565.0759637465435</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248959</v>
+        <v>623.3024475215565</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>682.3589740116433</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
@@ -36367,10 +36367,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>685.3008529699231</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>404.0461784550341</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>741.2912249487518</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>812.7881814881896</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3009265578891</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>524.8535742473078</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>668.8675274090701</v>
+        <v>655.1547664639386</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>684.7056784113264</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>769.0208838495923</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
